--- a/XuMiuDuTing/RabiConfig/xlsx/Scene.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Scene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA4382-4BC4-4DF8-9DF0-5D57764F5229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBA8D63-43CA-49A9-99D5-92D21F0BB078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Scene/Tittle.unity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/Battle.unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +410,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,8 +464,12 @@
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">

--- a/XuMiuDuTing/RabiConfig/xlsx/Scene.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Scene.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBA8D63-43CA-49A9-99D5-92D21F0BB078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263B3839-3508-4683-A5E0-B23796D6D108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Scene/Battle.unity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleTutorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Scene/BattleTutorial.unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +418,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,8 +481,12 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
